--- a/FRAEquipmentParamService/Data/Load.xlsx
+++ b/FRAEquipmentParamService/Data/Load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sourcecode\EquipmentParamMonitor\FRAEquipmentParamService\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B0A0A-F5F3-408E-9E74-120F0217B000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1C7341-33E2-4BB5-BD8B-94ED4C2F9FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -47,15 +47,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ns=2;s=WSDP_FRONT_STN130_A.WSDP_FRONT_STN130_A.Global.InterfaceToMES00.WorkRequire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ns=2;s=WSDP_FRONT_STN130_A.WSDP_FRONT_STN130_A.Global.InterfaceToMES00.PalletID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ns=2;s=WSDP_FRONT_STN130_A.WSDP_FRONT_STN130_A.Global.InterfaceToMES00.Barcodes_x.Barcodes_00.DATA</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ns=2;s=WSDP_FRONT_STN130_A.WSDP_FRONT_STN130_A.Global.InterfaceToMES00.WorkRequire</t>
   </si>
 </sst>
 </file>
@@ -383,7 +384,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -405,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/FRAEquipmentParamService/Data/Load.xlsx
+++ b/FRAEquipmentParamService/Data/Load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sourcecode\EquipmentParamMonitor\FRAEquipmentParamService\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1C7341-33E2-4BB5-BD8B-94ED4C2F9FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C886DDA-B4D2-4092-88CC-DD6F88A5AF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="4476" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
